--- a/biology/Botanique/Mein_Schöner_Garten/Mein_Schöner_Garten.xlsx
+++ b/biology/Botanique/Mein_Schöner_Garten/Mein_Schöner_Garten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mein_Sch%C3%B6ner_Garten</t>
+          <t>Mein_Schöner_Garten</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mein Schöner Garten' (en allemand : mon beau jardin[1]) est un cultivar de rosier obtenu en Allemagne de l'Ouest en 1986 par la maison Kordes[2] et mis au commerce en 1997.
+'Mein Schöner Garten' (en allemand : mon beau jardin) est un cultivar de rosier obtenu en Allemagne de l'Ouest en 1986 par la maison Kordes et mis au commerce en 1997.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mein_Sch%C3%B6ner_Garten</t>
+          <t>Mein_Schöner_Garten</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier au feuillage brillant et vert foncé s'élève à 120 cm. Ses fleurs de 8 à 9 cm sont d'un rose saumon tendre avec un cœur plus soutenu. Elles sont en forme de demi-coupes et fleurissent en bouquets, les pétales légèrement chiffonnés en plein épanouissement. Leur parfum est fruité. La floraison se déroule tout au long de la saison[3].
-'Mein Schöner Garten' résiste à la pluie et aux maladies. Sa zone de rusticité est de 6b à 9b ; il est donc adapté au climat descendant à - 20° l'hiver[2]. Il faut le tailler avant la fin du printemps.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier au feuillage brillant et vert foncé s'élève à 120 cm. Ses fleurs de 8 à 9 cm sont d'un rose saumon tendre avec un cœur plus soutenu. Elles sont en forme de demi-coupes et fleurissent en bouquets, les pétales légèrement chiffonnés en plein épanouissement. Leur parfum est fruité. La floraison se déroule tout au long de la saison.
+'Mein Schöner Garten' résiste à la pluie et aux maladies. Sa zone de rusticité est de 6b à 9b ; il est donc adapté au climat descendant à - 20° l'hiver. Il faut le tailler avant la fin du printemps.
 Il est parfait pour former des petites haies ou pour décorer le devant des plates-bandes.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mein_Sch%C3%B6ner_Garten</t>
+          <t>Mein_Schöner_Garten</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Belfast Certificate of Merit. Belfast Rose Trials, 2001
-Lyon Grande Rose du Siècle. Lyon 1997[4]</t>
+Lyon Grande Rose du Siècle. Lyon 1997</t>
         </is>
       </c>
     </row>
